--- a/BackEnd/public/table1.xlsx
+++ b/BackEnd/public/table1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProjects\tablevis\BackEnd\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68C200C-091D-4F25-8D1C-264BFECC3E4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0042B236-6444-412D-964C-94902AD15B4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" xr2:uid="{23356204-751C-416B-9E07-21F61D73E56A}"/>
   </bookViews>
@@ -165,15 +165,15 @@
     <t>South Korea</t>
   </si>
   <si>
-    <t>Direct investment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Financial transactions</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct investment position</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB02EE5-6071-4DF3-A4B2-19B2560B6EDC}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,19 +558,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1091,7 +1091,7 @@
         <v>-13430</v>
       </c>
       <c r="K14">
-        <v>28488</v>
+        <v>3054</v>
       </c>
       <c r="L14">
         <v>102641</v>
@@ -1173,7 +1173,7 @@
         <v>1169</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="L16">
         <v>1811</v>
@@ -1419,7 +1419,7 @@
         <v>-51</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>-28</v>
       </c>
       <c r="L22">
         <v>555</v>

--- a/BackEnd/public/table1.xlsx
+++ b/BackEnd/public/table1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProjects\tablevis\BackEnd\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0042B236-6444-412D-964C-94902AD15B4F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC3BD0F-2EAF-4C3F-A9AE-FB65EC5801D6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" xr2:uid="{23356204-751C-416B-9E07-21F61D73E56A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -63,12 +63,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>Latin America and Other Western Hemisphere</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
     <t>Argentina</t>
   </si>
   <si>
@@ -78,18 +72,6 @@
     <t>Chile</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Central America</t>
-  </si>
-  <si>
     <t>Costa Rica</t>
   </si>
   <si>
@@ -100,21 +82,6 @@
   </si>
   <si>
     <t>Panama</t>
-  </si>
-  <si>
-    <t>Other Western Hemisphere</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>United Kingdom Islands, Caribbean</t>
   </si>
   <si>
     <t>Africa</t>
@@ -174,6 +141,10 @@
   </si>
   <si>
     <t>Direct investment position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB02EE5-6071-4DF3-A4B2-19B2560B6EDC}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -558,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1067,330 +1038,330 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>1008741</v>
+        <v>230130</v>
       </c>
       <c r="E14">
-        <v>1000673</v>
+        <v>220911</v>
       </c>
       <c r="F14">
-        <v>931017</v>
+        <v>227217</v>
       </c>
       <c r="G14">
-        <v>962400</v>
+        <v>215485</v>
       </c>
       <c r="H14">
-        <v>75140</v>
+        <v>9214</v>
       </c>
       <c r="I14">
-        <v>-145362</v>
+        <v>3396</v>
       </c>
       <c r="J14">
-        <v>-13430</v>
+        <v>9075</v>
       </c>
       <c r="K14">
-        <v>3054</v>
+        <v>-982</v>
       </c>
       <c r="L14">
-        <v>102641</v>
+        <v>17141</v>
       </c>
       <c r="M14">
-        <v>106273</v>
+        <v>17425</v>
       </c>
       <c r="N14">
-        <v>101613</v>
+        <v>17670</v>
       </c>
       <c r="O14">
-        <v>89452</v>
+        <v>10445</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>138996</v>
+        <v>15219</v>
       </c>
       <c r="E15">
-        <v>134707</v>
+        <v>8907</v>
       </c>
       <c r="F15">
-        <v>138705</v>
+        <v>9974</v>
       </c>
       <c r="G15">
-        <v>140159</v>
+        <v>8730</v>
       </c>
       <c r="H15">
-        <v>-448</v>
+        <v>1898</v>
       </c>
       <c r="I15">
-        <v>-3982</v>
+        <v>-4412</v>
       </c>
       <c r="J15">
-        <v>2439</v>
+        <v>1169</v>
       </c>
       <c r="K15">
-        <v>6630</v>
+        <v>375</v>
       </c>
       <c r="L15">
-        <v>9599</v>
+        <v>1811</v>
       </c>
       <c r="M15">
-        <v>9316</v>
+        <v>1077</v>
       </c>
       <c r="N15">
-        <v>8451</v>
+        <v>344</v>
       </c>
       <c r="O15">
-        <v>4886</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>15219</v>
+        <v>77486</v>
       </c>
       <c r="E16">
-        <v>8907</v>
+        <v>78963</v>
       </c>
       <c r="F16">
-        <v>9974</v>
+        <v>80864</v>
       </c>
       <c r="G16">
-        <v>8730</v>
+        <v>70742</v>
       </c>
       <c r="H16">
-        <v>1898</v>
+        <v>2351</v>
       </c>
       <c r="I16">
-        <v>-4412</v>
+        <v>557</v>
       </c>
       <c r="J16">
-        <v>1169</v>
+        <v>-350</v>
       </c>
       <c r="K16">
-        <v>375</v>
+        <v>-3562</v>
       </c>
       <c r="L16">
-        <v>1811</v>
+        <v>3338</v>
       </c>
       <c r="M16">
-        <v>1077</v>
+        <v>3468</v>
       </c>
       <c r="N16">
-        <v>344</v>
+        <v>4104</v>
       </c>
       <c r="O16">
-        <v>-157</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>77486</v>
+        <v>25793</v>
       </c>
       <c r="E17">
-        <v>78963</v>
+        <v>25660</v>
       </c>
       <c r="F17">
-        <v>80864</v>
+        <v>24912</v>
       </c>
       <c r="G17">
-        <v>70742</v>
+        <v>23011</v>
       </c>
       <c r="H17">
-        <v>2351</v>
+        <v>-1546</v>
       </c>
       <c r="I17">
-        <v>557</v>
+        <v>397</v>
       </c>
       <c r="J17">
-        <v>-350</v>
+        <v>302</v>
       </c>
       <c r="K17">
-        <v>-3562</v>
+        <v>-952</v>
       </c>
       <c r="L17">
-        <v>3338</v>
+        <v>2069</v>
       </c>
       <c r="M17">
-        <v>3468</v>
+        <v>2553</v>
       </c>
       <c r="N17">
-        <v>4104</v>
+        <v>2021</v>
       </c>
       <c r="O17">
-        <v>2109</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>25793</v>
+        <v>1546</v>
       </c>
       <c r="E18">
-        <v>25660</v>
+        <v>1589</v>
       </c>
       <c r="F18">
-        <v>24912</v>
+        <v>2014</v>
       </c>
       <c r="G18">
-        <v>23011</v>
+        <v>1988</v>
       </c>
       <c r="H18">
-        <v>-1546</v>
+        <v>197</v>
       </c>
       <c r="I18">
-        <v>397</v>
+        <v>234</v>
       </c>
       <c r="J18">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="K18">
-        <v>-952</v>
+        <v>201</v>
       </c>
       <c r="L18">
-        <v>2069</v>
+        <v>129</v>
       </c>
       <c r="M18">
-        <v>2553</v>
+        <v>143</v>
       </c>
       <c r="N18">
-        <v>2021</v>
+        <v>197</v>
       </c>
       <c r="O18">
-        <v>1430</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>7669</v>
+        <v>1330</v>
       </c>
       <c r="E19">
-        <v>7236</v>
+        <v>1202</v>
       </c>
       <c r="F19">
-        <v>7286</v>
+        <v>1362</v>
       </c>
       <c r="G19">
-        <v>7767</v>
+        <v>1111</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="I19">
-        <v>846</v>
+        <v>-446</v>
       </c>
       <c r="J19">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="K19">
-        <v>-580</v>
+        <v>-258</v>
       </c>
       <c r="L19">
-        <v>831</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>1130</v>
+        <v>96</v>
       </c>
       <c r="N19">
-        <v>857</v>
+        <v>282</v>
       </c>
       <c r="O19">
-        <v>332</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20">
-        <v>5700</v>
+        <v>100169</v>
       </c>
       <c r="E20">
-        <v>5455</v>
+        <v>95543</v>
       </c>
       <c r="F20">
-        <v>6470</v>
+        <v>98010</v>
       </c>
       <c r="G20">
-        <v>7394</v>
+        <v>101057</v>
       </c>
       <c r="H20">
-        <v>1511</v>
+        <v>5907</v>
       </c>
       <c r="I20">
-        <v>-421</v>
+        <v>6456</v>
       </c>
       <c r="J20">
-        <v>1444</v>
+        <v>6530</v>
       </c>
       <c r="K20">
-        <v>1054</v>
+        <v>3456</v>
       </c>
       <c r="L20">
-        <v>1092</v>
+        <v>8733</v>
       </c>
       <c r="M20">
-        <v>624</v>
+        <v>9111</v>
       </c>
       <c r="N20">
-        <v>867</v>
+        <v>9600</v>
       </c>
       <c r="O20">
-        <v>1005</v>
+        <v>6508</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>3174</v>
+        <v>4821</v>
       </c>
       <c r="E21">
-        <v>2338</v>
+        <v>5206</v>
       </c>
       <c r="F21">
-        <v>2168</v>
+        <v>5785</v>
       </c>
       <c r="G21">
-        <v>1647</v>
+        <v>4583</v>
       </c>
       <c r="H21">
-        <v>-701</v>
+        <v>349</v>
       </c>
       <c r="I21">
-        <v>-963</v>
+        <v>612</v>
       </c>
       <c r="J21">
-        <v>-159</v>
+        <v>513</v>
       </c>
       <c r="K21">
-        <v>117</v>
+        <v>-139</v>
       </c>
       <c r="L21">
-        <v>-225</v>
+        <v>605</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>578</v>
       </c>
       <c r="N21">
-        <v>-368</v>
+        <v>726</v>
       </c>
       <c r="O21">
-        <v>-158</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
@@ -1398,1310 +1369,818 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <v>3240</v>
+        <v>3766</v>
       </c>
       <c r="E22">
-        <v>5367</v>
+        <v>3841</v>
       </c>
       <c r="F22">
-        <v>6350</v>
+        <v>4296</v>
       </c>
       <c r="G22">
-        <v>20840</v>
+        <v>4263</v>
       </c>
       <c r="H22">
-        <v>-3773</v>
+        <v>34</v>
       </c>
       <c r="I22">
-        <v>-34</v>
+        <v>-2</v>
       </c>
       <c r="J22">
-        <v>-51</v>
+        <v>488</v>
       </c>
       <c r="K22">
-        <v>-28</v>
+        <v>-103</v>
       </c>
       <c r="L22">
-        <v>555</v>
+        <v>382</v>
       </c>
       <c r="M22">
-        <v>467</v>
+        <v>399</v>
       </c>
       <c r="N22">
-        <v>486</v>
+        <v>396</v>
       </c>
       <c r="O22">
-        <v>261</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>111631</v>
+        <v>50403</v>
       </c>
       <c r="E23">
-        <v>107381</v>
+        <v>48069</v>
       </c>
       <c r="F23">
-        <v>111467</v>
+        <v>46053</v>
       </c>
       <c r="G23">
-        <v>113001</v>
+        <v>47500</v>
       </c>
       <c r="H23">
-        <v>6511</v>
+        <v>534</v>
       </c>
       <c r="I23">
-        <v>6854</v>
+        <v>-1164</v>
       </c>
       <c r="J23">
-        <v>7954</v>
+        <v>-3393</v>
       </c>
       <c r="K23">
-        <v>3157</v>
+        <v>2079</v>
       </c>
       <c r="L23">
-        <v>9924</v>
+        <v>2485</v>
       </c>
       <c r="M23">
-        <v>10327</v>
+        <v>3561</v>
       </c>
       <c r="N23">
-        <v>11200</v>
+        <v>3784</v>
       </c>
       <c r="O23">
-        <v>7064</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>1546</v>
+        <v>11095</v>
       </c>
       <c r="E24">
-        <v>1589</v>
+        <v>11028</v>
       </c>
       <c r="F24">
-        <v>2014</v>
+        <v>11133</v>
       </c>
       <c r="G24">
-        <v>1988</v>
+        <v>11206</v>
       </c>
       <c r="H24">
-        <v>197</v>
+        <v>-525</v>
       </c>
       <c r="I24">
-        <v>234</v>
+        <v>-516</v>
       </c>
       <c r="J24">
-        <v>254</v>
+        <v>13</v>
       </c>
       <c r="K24">
-        <v>201</v>
+        <v>-28</v>
       </c>
       <c r="L24">
-        <v>129</v>
+        <v>581</v>
       </c>
       <c r="M24">
-        <v>143</v>
+        <v>1105</v>
       </c>
       <c r="N24">
-        <v>197</v>
+        <v>794</v>
       </c>
       <c r="O24">
-        <v>140</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>1330</v>
+        <v>4844</v>
       </c>
       <c r="E25">
-        <v>1202</v>
+        <v>4504</v>
       </c>
       <c r="F25">
-        <v>1362</v>
+        <v>6572</v>
       </c>
       <c r="G25">
-        <v>1111</v>
+        <v>6811</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>1354</v>
       </c>
       <c r="I25">
-        <v>-446</v>
+        <v>-291</v>
       </c>
       <c r="J25">
-        <v>169</v>
+        <v>914</v>
       </c>
       <c r="K25">
-        <v>-258</v>
+        <v>171</v>
       </c>
       <c r="L25">
-        <v>74</v>
+        <v>523</v>
       </c>
       <c r="M25">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="N25">
-        <v>282</v>
+        <v>674</v>
       </c>
       <c r="O25">
-        <v>54</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>100169</v>
+        <v>8058</v>
       </c>
       <c r="E26">
-        <v>95543</v>
+        <v>9088</v>
       </c>
       <c r="F26">
-        <v>98010</v>
+        <v>9167</v>
       </c>
       <c r="G26">
-        <v>101057</v>
+        <v>10023</v>
       </c>
       <c r="H26">
-        <v>5907</v>
+        <v>429</v>
       </c>
       <c r="I26">
-        <v>6456</v>
+        <v>201</v>
       </c>
       <c r="J26">
-        <v>6530</v>
+        <v>451</v>
       </c>
       <c r="K26">
-        <v>3456</v>
+        <v>-25</v>
       </c>
       <c r="L26">
-        <v>8733</v>
+        <v>596</v>
       </c>
       <c r="M26">
-        <v>9111</v>
+        <v>493</v>
       </c>
       <c r="N26">
-        <v>9600</v>
+        <v>602</v>
       </c>
       <c r="O26">
-        <v>6508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27">
+        <v>26407</v>
+      </c>
+      <c r="E27">
+        <v>23450</v>
+      </c>
+      <c r="F27">
+        <v>19181</v>
+      </c>
+      <c r="G27">
+        <v>19460</v>
+      </c>
+      <c r="H27">
+        <v>-724</v>
+      </c>
+      <c r="I27">
+        <v>-557</v>
+      </c>
+      <c r="J27">
+        <v>-4771</v>
+      </c>
+      <c r="K27">
+        <v>1961</v>
+      </c>
+      <c r="L27">
+        <v>784</v>
+      </c>
+      <c r="M27">
+        <v>1720</v>
+      </c>
+      <c r="N27">
+        <v>1714</v>
+      </c>
+      <c r="O27">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>74509</v>
+      </c>
+      <c r="E28">
+        <v>76945</v>
+      </c>
+      <c r="F28">
+        <v>82386</v>
+      </c>
+      <c r="G28">
+        <v>90124</v>
+      </c>
+      <c r="H28">
+        <v>6812</v>
+      </c>
+      <c r="I28">
+        <v>3513</v>
+      </c>
+      <c r="J28">
+        <v>3888</v>
+      </c>
+      <c r="K28">
+        <v>6560</v>
+      </c>
+      <c r="L28">
+        <v>9082</v>
+      </c>
+      <c r="M28">
+        <v>10370</v>
+      </c>
+      <c r="N28">
+        <v>8813</v>
+      </c>
+      <c r="O28">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>24</v>
       </c>
-      <c r="D27">
-        <v>4821</v>
-      </c>
-      <c r="E27">
-        <v>5206</v>
-      </c>
-      <c r="F27">
-        <v>5785</v>
-      </c>
-      <c r="G27">
-        <v>4583</v>
-      </c>
-      <c r="H27">
-        <v>349</v>
-      </c>
-      <c r="I27">
-        <v>612</v>
-      </c>
-      <c r="J27">
-        <v>513</v>
-      </c>
-      <c r="K27">
-        <v>-139</v>
-      </c>
-      <c r="L27">
-        <v>605</v>
-      </c>
-      <c r="M27">
-        <v>578</v>
-      </c>
-      <c r="N27">
-        <v>726</v>
-      </c>
-      <c r="O27">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28">
-        <v>3766</v>
-      </c>
-      <c r="E28">
-        <v>3841</v>
-      </c>
-      <c r="F28">
-        <v>4296</v>
-      </c>
-      <c r="G28">
-        <v>4263</v>
-      </c>
-      <c r="H28">
-        <v>34</v>
-      </c>
-      <c r="I28">
-        <v>-2</v>
-      </c>
-      <c r="J28">
-        <v>488</v>
-      </c>
-      <c r="K28">
-        <v>-103</v>
-      </c>
-      <c r="L28">
-        <v>382</v>
-      </c>
-      <c r="M28">
-        <v>399</v>
-      </c>
-      <c r="N28">
-        <v>396</v>
-      </c>
-      <c r="O28">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
       <c r="D29">
-        <v>758114</v>
+        <v>28160</v>
       </c>
       <c r="E29">
-        <v>758586</v>
+        <v>28997</v>
       </c>
       <c r="F29">
-        <v>680845</v>
+        <v>32984</v>
       </c>
       <c r="G29">
-        <v>709240</v>
+        <v>40437</v>
       </c>
       <c r="H29">
-        <v>69077</v>
+        <v>1235</v>
       </c>
       <c r="I29">
-        <v>-148234</v>
+        <v>701</v>
       </c>
       <c r="J29">
-        <v>-23823</v>
+        <v>3586</v>
       </c>
       <c r="K29">
-        <v>18701</v>
+        <v>7068</v>
       </c>
       <c r="L29">
-        <v>83119</v>
+        <v>814</v>
       </c>
       <c r="M29">
-        <v>86630</v>
+        <v>803</v>
       </c>
       <c r="N29">
-        <v>81962</v>
+        <v>1036</v>
       </c>
       <c r="O29">
-        <v>77503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>21736</v>
+        <v>10702</v>
       </c>
       <c r="E30">
-        <v>40015</v>
+        <v>10807</v>
       </c>
       <c r="F30">
-        <v>44586</v>
+        <v>11117</v>
       </c>
       <c r="G30">
-        <v>57053</v>
+        <v>11386</v>
       </c>
       <c r="H30">
-        <v>885</v>
+        <v>519</v>
       </c>
       <c r="I30">
-        <v>2597</v>
+        <v>243</v>
       </c>
       <c r="J30">
-        <v>4499</v>
+        <v>210</v>
       </c>
       <c r="K30">
-        <v>11116</v>
+        <v>359</v>
       </c>
       <c r="L30">
-        <v>1208</v>
+        <v>1165</v>
       </c>
       <c r="M30">
-        <v>3197</v>
+        <v>969</v>
       </c>
       <c r="N30">
-        <v>3527</v>
+        <v>872</v>
       </c>
       <c r="O30">
-        <v>4641</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31">
-        <v>401435</v>
+        <v>16881</v>
       </c>
       <c r="E31">
-        <v>339399</v>
+        <v>18055</v>
       </c>
       <c r="F31">
-        <v>273240</v>
+        <v>18441</v>
       </c>
       <c r="G31">
-        <v>274576</v>
+        <v>19468</v>
       </c>
       <c r="H31">
-        <v>42588</v>
+        <v>3386</v>
       </c>
       <c r="I31">
-        <v>-149490</v>
+        <v>946</v>
       </c>
       <c r="J31">
-        <v>-31731</v>
+        <v>-547</v>
       </c>
       <c r="K31">
-        <v>-4189</v>
+        <v>419</v>
       </c>
       <c r="L31">
-        <v>48188</v>
+        <v>1597</v>
       </c>
       <c r="M31">
-        <v>43929</v>
+        <v>1399</v>
       </c>
       <c r="N31">
-        <v>40558</v>
+        <v>1429</v>
       </c>
       <c r="O31">
-        <v>40797</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D32">
-        <v>2009</v>
+        <v>18766</v>
       </c>
       <c r="E32">
-        <v>2101</v>
+        <v>19087</v>
       </c>
       <c r="F32">
-        <v>2710</v>
+        <v>19844</v>
       </c>
       <c r="G32">
-        <v>2806</v>
+        <v>18832</v>
       </c>
       <c r="H32">
-        <v>494</v>
+        <v>1671</v>
       </c>
       <c r="I32">
-        <v>195</v>
+        <v>1624</v>
       </c>
       <c r="J32">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="K32">
-        <v>117</v>
+        <v>-1286</v>
       </c>
       <c r="L32">
-        <v>375</v>
+        <v>5505</v>
       </c>
       <c r="M32">
-        <v>362</v>
+        <v>7200</v>
       </c>
       <c r="N32">
-        <v>339</v>
+        <v>5475</v>
       </c>
       <c r="O32">
-        <v>284</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>29</v>
+      <c r="B33" t="s">
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>286601</v>
+        <v>794999</v>
       </c>
       <c r="E33">
-        <v>304716</v>
+        <v>719028</v>
       </c>
       <c r="F33">
-        <v>289959</v>
+        <v>768670</v>
       </c>
       <c r="G33">
-        <v>304816</v>
+        <v>790724</v>
       </c>
       <c r="H33">
-        <v>24604</v>
+        <v>47904</v>
       </c>
       <c r="I33">
-        <v>9334</v>
+        <v>-35561</v>
       </c>
       <c r="J33">
-        <v>3635</v>
+        <v>33532</v>
       </c>
       <c r="K33">
-        <v>10042</v>
+        <v>29030</v>
       </c>
       <c r="L33">
-        <v>31880</v>
+        <v>72316</v>
       </c>
       <c r="M33">
-        <v>34340</v>
+        <v>85244</v>
       </c>
       <c r="N33">
-        <v>33776</v>
+        <v>75234</v>
       </c>
       <c r="O33">
-        <v>28502</v>
+        <v>74083</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D34">
-        <v>46333</v>
+        <v>169749</v>
       </c>
       <c r="E34">
-        <v>72356</v>
+        <v>166269</v>
       </c>
       <c r="F34">
-        <v>70349</v>
+        <v>161200</v>
       </c>
       <c r="G34">
-        <v>69990</v>
+        <v>163466</v>
       </c>
       <c r="H34">
-        <v>505</v>
+        <v>-621</v>
       </c>
       <c r="I34">
-        <v>-10869</v>
+        <v>-3273</v>
       </c>
       <c r="J34">
-        <v>-849</v>
+        <v>-3806</v>
       </c>
       <c r="K34">
-        <v>1615</v>
+        <v>3745</v>
       </c>
       <c r="L34">
-        <v>1468</v>
+        <v>8025</v>
       </c>
       <c r="M34">
-        <v>4802</v>
+        <v>10245</v>
       </c>
       <c r="N34">
-        <v>3761</v>
+        <v>9081</v>
       </c>
       <c r="O34">
-        <v>3278</v>
+        <v>7348</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>30</v>
+      <c r="C35" t="s">
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>50403</v>
+        <v>105146</v>
       </c>
       <c r="E35">
-        <v>48069</v>
+        <v>107557</v>
       </c>
       <c r="F35">
-        <v>46053</v>
+        <v>113189</v>
       </c>
       <c r="G35">
-        <v>47500</v>
+        <v>123875</v>
       </c>
       <c r="H35">
-        <v>534</v>
+        <v>7943</v>
       </c>
       <c r="I35">
-        <v>-1164</v>
+        <v>6391</v>
       </c>
       <c r="J35">
-        <v>-3393</v>
+        <v>7002</v>
       </c>
       <c r="K35">
-        <v>2079</v>
+        <v>9329</v>
       </c>
       <c r="L35">
-        <v>2485</v>
+        <v>13634</v>
       </c>
       <c r="M35">
-        <v>3561</v>
+        <v>12970</v>
       </c>
       <c r="N35">
-        <v>3784</v>
+        <v>11023</v>
       </c>
       <c r="O35">
-        <v>1758</v>
+        <v>10714</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
-        <v>11095</v>
+        <v>45160</v>
       </c>
       <c r="E36">
-        <v>11028</v>
+        <v>42197</v>
       </c>
       <c r="F36">
-        <v>11133</v>
+        <v>41982</v>
       </c>
       <c r="G36">
-        <v>11206</v>
+        <v>41904</v>
       </c>
       <c r="H36">
-        <v>-525</v>
+        <v>3623</v>
       </c>
       <c r="I36">
-        <v>-516</v>
+        <v>656</v>
       </c>
       <c r="J36">
-        <v>13</v>
+        <v>2581</v>
       </c>
       <c r="K36">
-        <v>-28</v>
+        <v>881</v>
       </c>
       <c r="L36">
-        <v>581</v>
+        <v>4351</v>
       </c>
       <c r="M36">
-        <v>1105</v>
+        <v>3889</v>
       </c>
       <c r="N36">
-        <v>794</v>
+        <v>3689</v>
       </c>
       <c r="O36">
-        <v>269</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>4844</v>
+        <v>117134</v>
       </c>
       <c r="E37">
-        <v>4504</v>
+        <v>108933</v>
       </c>
       <c r="F37">
-        <v>6572</v>
+        <v>128539</v>
       </c>
       <c r="G37">
-        <v>6811</v>
+        <v>131643</v>
       </c>
       <c r="H37">
-        <v>1354</v>
+        <v>9094</v>
       </c>
       <c r="I37">
-        <v>-291</v>
+        <v>1550</v>
       </c>
       <c r="J37">
-        <v>914</v>
+        <v>9049</v>
       </c>
       <c r="K37">
-        <v>171</v>
+        <v>2568</v>
       </c>
       <c r="L37">
-        <v>523</v>
+        <v>12456</v>
       </c>
       <c r="M37">
-        <v>244</v>
+        <v>12633</v>
       </c>
       <c r="N37">
-        <v>674</v>
+        <v>12121</v>
       </c>
       <c r="O37">
-        <v>263</v>
+        <v>14899</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>8058</v>
+        <v>12384</v>
       </c>
       <c r="E38">
-        <v>9088</v>
+        <v>11379</v>
       </c>
       <c r="F38">
-        <v>9167</v>
+        <v>11869</v>
       </c>
       <c r="G38">
-        <v>10023</v>
+        <v>12903</v>
       </c>
       <c r="H38">
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="I38">
-        <v>201</v>
+        <v>-160</v>
       </c>
       <c r="J38">
-        <v>451</v>
+        <v>299</v>
       </c>
       <c r="K38">
-        <v>-25</v>
+        <v>523</v>
       </c>
       <c r="L38">
-        <v>596</v>
+        <v>881</v>
       </c>
       <c r="M38">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="N38">
-        <v>602</v>
+        <v>466</v>
       </c>
       <c r="O38">
-        <v>496</v>
+        <v>707</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D39">
-        <v>26407</v>
+        <v>293452</v>
       </c>
       <c r="E39">
-        <v>23450</v>
+        <v>232940</v>
       </c>
       <c r="F39">
-        <v>19181</v>
+        <v>260642</v>
       </c>
       <c r="G39">
-        <v>19460</v>
+        <v>270807</v>
       </c>
       <c r="H39">
-        <v>-724</v>
+        <v>23369</v>
       </c>
       <c r="I39">
-        <v>-557</v>
+        <v>-39799</v>
       </c>
       <c r="J39">
-        <v>-4771</v>
+        <v>15279</v>
       </c>
       <c r="K39">
-        <v>1961</v>
+        <v>14609</v>
       </c>
       <c r="L39">
-        <v>784</v>
+        <v>29955</v>
       </c>
       <c r="M39">
-        <v>1720</v>
+        <v>40981</v>
       </c>
       <c r="N39">
-        <v>1714</v>
+        <v>34866</v>
       </c>
       <c r="O39">
-        <v>730</v>
+        <v>34309</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>34</v>
       </c>
       <c r="D40">
-        <v>74509</v>
+        <v>40237</v>
       </c>
       <c r="E40">
-        <v>76945</v>
+        <v>37282</v>
       </c>
       <c r="F40">
-        <v>82386</v>
+        <v>38476</v>
       </c>
       <c r="G40">
-        <v>90124</v>
+        <v>33888</v>
       </c>
       <c r="H40">
-        <v>6812</v>
+        <v>668</v>
       </c>
       <c r="I40">
-        <v>3513</v>
+        <v>-1664</v>
       </c>
       <c r="J40">
-        <v>3888</v>
+        <v>2365</v>
       </c>
       <c r="K40">
-        <v>6560</v>
+        <v>-2039</v>
       </c>
       <c r="L40">
-        <v>9082</v>
+        <v>1924</v>
       </c>
       <c r="M40">
-        <v>10370</v>
+        <v>2791</v>
       </c>
       <c r="N40">
-        <v>8813</v>
+        <v>2638</v>
       </c>
       <c r="O40">
-        <v>5047</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D41">
-        <v>28160</v>
+        <v>11737</v>
       </c>
       <c r="E41">
-        <v>28997</v>
+        <v>12471</v>
       </c>
       <c r="F41">
-        <v>32984</v>
+        <v>12773</v>
       </c>
       <c r="G41">
-        <v>40437</v>
+        <v>12238</v>
       </c>
       <c r="H41">
-        <v>1235</v>
+        <v>3359</v>
       </c>
       <c r="I41">
-        <v>701</v>
+        <v>738</v>
       </c>
       <c r="J41">
-        <v>3586</v>
+        <v>763</v>
       </c>
       <c r="K41">
-        <v>7068</v>
+        <v>-586</v>
       </c>
       <c r="L41">
-        <v>814</v>
+        <v>1090</v>
       </c>
       <c r="M41">
-        <v>803</v>
+        <v>1252</v>
       </c>
       <c r="N41">
-        <v>1036</v>
+        <v>1350</v>
       </c>
       <c r="O41">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D42">
-        <v>10702</v>
-      </c>
-      <c r="E42">
-        <v>10807</v>
-      </c>
-      <c r="F42">
-        <v>11117</v>
-      </c>
-      <c r="G42">
-        <v>11386</v>
-      </c>
-      <c r="H42">
-        <v>519</v>
-      </c>
-      <c r="I42">
-        <v>243</v>
-      </c>
-      <c r="J42">
-        <v>210</v>
-      </c>
-      <c r="K42">
-        <v>359</v>
-      </c>
-      <c r="L42">
-        <v>1165</v>
-      </c>
-      <c r="M42">
-        <v>969</v>
-      </c>
-      <c r="N42">
-        <v>872</v>
-      </c>
-      <c r="O42">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D43">
-        <v>16881</v>
-      </c>
-      <c r="E43">
-        <v>18055</v>
-      </c>
-      <c r="F43">
-        <v>18441</v>
-      </c>
-      <c r="G43">
-        <v>19468</v>
-      </c>
-      <c r="H43">
-        <v>3386</v>
-      </c>
-      <c r="I43">
-        <v>946</v>
-      </c>
-      <c r="J43">
-        <v>-547</v>
-      </c>
-      <c r="K43">
-        <v>419</v>
-      </c>
-      <c r="L43">
-        <v>1597</v>
-      </c>
-      <c r="M43">
-        <v>1399</v>
-      </c>
-      <c r="N43">
-        <v>1429</v>
-      </c>
-      <c r="O43">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44">
-        <v>18766</v>
-      </c>
-      <c r="E44">
-        <v>19087</v>
-      </c>
-      <c r="F44">
-        <v>19844</v>
-      </c>
-      <c r="G44">
-        <v>18832</v>
-      </c>
-      <c r="H44">
-        <v>1671</v>
-      </c>
-      <c r="I44">
-        <v>1624</v>
-      </c>
-      <c r="J44">
-        <v>639</v>
-      </c>
-      <c r="K44">
-        <v>-1286</v>
-      </c>
-      <c r="L44">
-        <v>5505</v>
-      </c>
-      <c r="M44">
-        <v>7200</v>
-      </c>
-      <c r="N44">
-        <v>5475</v>
-      </c>
-      <c r="O44">
-        <v>2531</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45">
-        <v>794999</v>
-      </c>
-      <c r="E45">
-        <v>719028</v>
-      </c>
-      <c r="F45">
-        <v>768670</v>
-      </c>
-      <c r="G45">
-        <v>790724</v>
-      </c>
-      <c r="H45">
-        <v>47904</v>
-      </c>
-      <c r="I45">
-        <v>-35561</v>
-      </c>
-      <c r="J45">
-        <v>33532</v>
-      </c>
-      <c r="K45">
-        <v>29030</v>
-      </c>
-      <c r="L45">
-        <v>72316</v>
-      </c>
-      <c r="M45">
-        <v>85244</v>
-      </c>
-      <c r="N45">
-        <v>75234</v>
-      </c>
-      <c r="O45">
-        <v>74083</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46">
-        <v>169749</v>
-      </c>
-      <c r="E46">
-        <v>166269</v>
-      </c>
-      <c r="F46">
-        <v>161200</v>
-      </c>
-      <c r="G46">
-        <v>163466</v>
-      </c>
-      <c r="H46">
-        <v>-621</v>
-      </c>
-      <c r="I46">
-        <v>-3273</v>
-      </c>
-      <c r="J46">
-        <v>-3806</v>
-      </c>
-      <c r="K46">
-        <v>3745</v>
-      </c>
-      <c r="L46">
-        <v>8025</v>
-      </c>
-      <c r="M46">
-        <v>10245</v>
-      </c>
-      <c r="N46">
-        <v>9081</v>
-      </c>
-      <c r="O46">
-        <v>7348</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47">
-        <v>105146</v>
-      </c>
-      <c r="E47">
-        <v>107557</v>
-      </c>
-      <c r="F47">
-        <v>113189</v>
-      </c>
-      <c r="G47">
-        <v>123875</v>
-      </c>
-      <c r="H47">
-        <v>7943</v>
-      </c>
-      <c r="I47">
-        <v>6391</v>
-      </c>
-      <c r="J47">
-        <v>7002</v>
-      </c>
-      <c r="K47">
-        <v>9329</v>
-      </c>
-      <c r="L47">
-        <v>13634</v>
-      </c>
-      <c r="M47">
-        <v>12970</v>
-      </c>
-      <c r="N47">
-        <v>11023</v>
-      </c>
-      <c r="O47">
-        <v>10714</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>41</v>
-      </c>
-      <c r="D48">
-        <v>45160</v>
-      </c>
-      <c r="E48">
-        <v>42197</v>
-      </c>
-      <c r="F48">
-        <v>41982</v>
-      </c>
-      <c r="G48">
-        <v>41904</v>
-      </c>
-      <c r="H48">
-        <v>3623</v>
-      </c>
-      <c r="I48">
-        <v>656</v>
-      </c>
-      <c r="J48">
-        <v>2581</v>
-      </c>
-      <c r="K48">
-        <v>881</v>
-      </c>
-      <c r="L48">
-        <v>4351</v>
-      </c>
-      <c r="M48">
-        <v>3889</v>
-      </c>
-      <c r="N48">
-        <v>3689</v>
-      </c>
-      <c r="O48">
-        <v>3594</v>
-      </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49">
-        <v>117134</v>
-      </c>
-      <c r="E49">
-        <v>108933</v>
-      </c>
-      <c r="F49">
-        <v>128539</v>
-      </c>
-      <c r="G49">
-        <v>131643</v>
-      </c>
-      <c r="H49">
-        <v>9094</v>
-      </c>
-      <c r="I49">
-        <v>1550</v>
-      </c>
-      <c r="J49">
-        <v>9049</v>
-      </c>
-      <c r="K49">
-        <v>2568</v>
-      </c>
-      <c r="L49">
-        <v>12456</v>
-      </c>
-      <c r="M49">
-        <v>12633</v>
-      </c>
-      <c r="N49">
-        <v>12121</v>
-      </c>
-      <c r="O49">
-        <v>14899</v>
-      </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50">
-        <v>12384</v>
-      </c>
-      <c r="E50">
-        <v>11379</v>
-      </c>
-      <c r="F50">
-        <v>11869</v>
-      </c>
-      <c r="G50">
-        <v>12903</v>
-      </c>
-      <c r="H50">
-        <v>469</v>
-      </c>
-      <c r="I50">
-        <v>-160</v>
-      </c>
-      <c r="J50">
-        <v>299</v>
-      </c>
-      <c r="K50">
-        <v>523</v>
-      </c>
-      <c r="L50">
-        <v>881</v>
-      </c>
-      <c r="M50">
-        <v>483</v>
-      </c>
-      <c r="N50">
-        <v>466</v>
-      </c>
-      <c r="O50">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51">
-        <v>293452</v>
-      </c>
-      <c r="E51">
-        <v>232940</v>
-      </c>
-      <c r="F51">
-        <v>260642</v>
-      </c>
-      <c r="G51">
-        <v>270807</v>
-      </c>
-      <c r="H51">
-        <v>23369</v>
-      </c>
-      <c r="I51">
-        <v>-39799</v>
-      </c>
-      <c r="J51">
-        <v>15279</v>
-      </c>
-      <c r="K51">
-        <v>14609</v>
-      </c>
-      <c r="L51">
-        <v>29955</v>
-      </c>
-      <c r="M51">
-        <v>40981</v>
-      </c>
-      <c r="N51">
-        <v>34866</v>
-      </c>
-      <c r="O51">
-        <v>34309</v>
-      </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C52" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52">
-        <v>40237</v>
-      </c>
-      <c r="E52">
-        <v>37282</v>
-      </c>
-      <c r="F52">
-        <v>38476</v>
-      </c>
-      <c r="G52">
-        <v>33888</v>
-      </c>
-      <c r="H52">
-        <v>668</v>
-      </c>
-      <c r="I52">
-        <v>-1664</v>
-      </c>
-      <c r="J52">
-        <v>2365</v>
-      </c>
-      <c r="K52">
-        <v>-2039</v>
-      </c>
-      <c r="L52">
-        <v>1924</v>
-      </c>
-      <c r="M52">
-        <v>2791</v>
-      </c>
-      <c r="N52">
-        <v>2638</v>
-      </c>
-      <c r="O52">
-        <v>2513</v>
-      </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53">
-        <v>11737</v>
-      </c>
-      <c r="E53">
-        <v>12471</v>
-      </c>
-      <c r="F53">
-        <v>12773</v>
-      </c>
-      <c r="G53">
-        <v>12238</v>
-      </c>
-      <c r="H53">
-        <v>3359</v>
-      </c>
-      <c r="I53">
-        <v>738</v>
-      </c>
-      <c r="J53">
-        <v>763</v>
-      </c>
-      <c r="K53">
-        <v>-586</v>
-      </c>
-      <c r="L53">
-        <v>1090</v>
-      </c>
-      <c r="M53">
-        <v>1252</v>
-      </c>
-      <c r="N53">
-        <v>1350</v>
-      </c>
-      <c r="O53">
         <v>-1</v>
       </c>
     </row>
